--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>336036.4905237809</v>
+        <v>333473.4701878756</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>49.66178364084193</v>
+        <v>315.3426039722191</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>249.0719396942762</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>22.66160460810663</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.8736427209268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>320.0601402632473</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>53.68725830878102</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>136.8266099369216</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>7.26765656529917</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>111.725519388574</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>35.95245435214225</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>101.937297350575</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.444092204306003</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986318</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>93.07916359105414</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833423</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181942</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833815</v>
+        <v>103.1686991936146</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>132.616430926768</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,13 +2138,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>123.9815576456769</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>21.69718571885169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890387</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>143.9002723490398</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>224.1675592379419</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>41.02686156550261</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>893.0229723523616</v>
+        <v>1084.819718160262</v>
       </c>
       <c r="C2" t="n">
-        <v>524.06045541195</v>
+        <v>1084.819718160262</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4331,16 +4331,16 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816094</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872925</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
@@ -4361,19 +4361,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>1848.424808397153</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1848.424808397153</v>
       </c>
       <c r="X2" t="n">
-        <v>1669.762144392295</v>
+        <v>1474.959050136074</v>
       </c>
       <c r="Y2" t="n">
-        <v>1279.622812416483</v>
+        <v>1084.819718160262</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429764</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>801.944955774448</v>
+        <v>821.9680821844939</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1399.720504392484</v>
+        <v>224.2539356854971</v>
       </c>
       <c r="C4" t="n">
-        <v>1399.720504392484</v>
+        <v>224.2539356854971</v>
       </c>
       <c r="D4" t="n">
-        <v>1399.720504392484</v>
+        <v>74.13729627316133</v>
       </c>
       <c r="E4" t="n">
-        <v>1399.720504392484</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392484</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564269</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936619</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>2339.360847594891</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>2339.360847594891</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>2084.676359389004</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>1795.259189352043</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X4" t="n">
-        <v>1567.269638454026</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="Y4" t="n">
-        <v>1399.720504392484</v>
+        <v>224.2539356854971</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1909.224801182914</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.262284242502</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>756.6369969428285</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>756.6369969428285</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2299.364133158725</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2299.364133158725</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2299.364133158725</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>2299.364133158725</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1909.224801182914</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605186</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919901</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924316</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>972.1236161403527</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="C7" t="n">
-        <v>803.1874332124459</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D7" t="n">
-        <v>653.0707938001101</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>1381.76163186861</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X7" t="n">
-        <v>1153.772080970592</v>
+        <v>539.0918561847483</v>
       </c>
       <c r="Y7" t="n">
-        <v>1153.772080970592</v>
+        <v>531.7507889470724</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.972143346162</v>
+        <v>880.6454412161684</v>
       </c>
       <c r="C8" t="n">
-        <v>1230.118083357703</v>
+        <v>880.6454412161684</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.118083357703</v>
+        <v>880.6454412161684</v>
       </c>
       <c r="E8" t="n">
         <v>844.329830759459</v>
@@ -4799,55 +4799,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872906</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926624</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926624</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583053</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.577233583053</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="X8" t="n">
-        <v>1733.111475321974</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1342.972143346162</v>
+        <v>880.6454412161684</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.20497511435</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458216</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>789.6534264926422</v>
+        <v>349.276519562732</v>
       </c>
       <c r="C10" t="n">
-        <v>620.7172435647353</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7172435647353</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544053</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W10" t="n">
-        <v>793.1323075070927</v>
+        <v>570.0690987062621</v>
       </c>
       <c r="X10" t="n">
-        <v>793.1323075070927</v>
+        <v>570.0690987062621</v>
       </c>
       <c r="Y10" t="n">
-        <v>789.6534264926422</v>
+        <v>349.276519562732</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121604</v>
       </c>
       <c r="D13" t="n">
-        <v>482.6390612909563</v>
+        <v>194.8007783998246</v>
       </c>
       <c r="E13" t="n">
-        <v>334.7259677085632</v>
+        <v>194.8007783998246</v>
       </c>
       <c r="F13" t="n">
-        <v>187.8360202106528</v>
+        <v>194.8007783998246</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998246</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400664</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3403484614391</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4041655335323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>664.2875261211965</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3744325388034</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>369.484485040893</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5786,10 +5786,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400702</v>
       </c>
       <c r="C22" t="n">
-        <v>634.334587849125</v>
+        <v>513.8536007400702</v>
       </c>
       <c r="D22" t="n">
-        <v>634.334587849125</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>486.4214942667319</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>339.5315467688215</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138401</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703099</v>
       </c>
     </row>
     <row r="23">
@@ -5978,25 +5978,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,10 +6005,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6078,13 +6078,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>551.354624631591</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2234.563569379087</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2014.962104402028</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1725.886877746226</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1471.202389540339</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1181.785219503378</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>953.7956686053609</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.0030894618308</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343197</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219839</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2579373565604</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,58 +6926,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,16 +7254,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241568</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>231.2582814363242</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>138.9393975111067</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780647</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.773338340300088e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>303.6745734627173</v>
+        <v>39.34043764846384</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>123.7723580384625</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>72.4449747012147</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788966</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823196</v>
+        <v>43.2652634529546</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>32.90770736550081</v>
+        <v>44.73700564187379</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253544</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>143.8269525734171</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>37.12601365260483</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>62.3554390986491</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>99.26785128072125</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>982471.10593447</v>
+        <v>982471.1059344703</v>
       </c>
     </row>
     <row r="3">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1055390.019247132</v>
+        <v>1055390.019247131</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019032</v>
+        <v>335917.9865019029</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389271</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="H2" t="n">
         <v>363215.9698605027</v>
       </c>
       <c r="I2" t="n">
+        <v>363215.9698605024</v>
+      </c>
+      <c r="J2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="K2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="J2" t="n">
-        <v>363215.9698605029</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363215.9698605028</v>
-      </c>
       <c r="L2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="M2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="N2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="O2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="O2" t="n">
-        <v>363215.9698605025</v>
-      </c>
       <c r="P2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89354.84311895978</v>
+        <v>89354.84311895986</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707368</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707331</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707363</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707319</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="O4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-961126.4126328208</v>
+        <v>-961312.8060213601</v>
       </c>
       <c r="C6" t="n">
+        <v>144621.2971674577</v>
+      </c>
+      <c r="D6" t="n">
         <v>144621.2971674575</v>
       </c>
-      <c r="D6" t="n">
-        <v>144621.2971674572</v>
-      </c>
       <c r="E6" t="n">
-        <v>-252289.4260846577</v>
+        <v>-252324.1640100933</v>
       </c>
       <c r="F6" t="n">
-        <v>255196.0155398881</v>
+        <v>255161.2776144526</v>
       </c>
       <c r="G6" t="n">
-        <v>255196.0155398879</v>
+        <v>255161.2776144523</v>
       </c>
       <c r="H6" t="n">
-        <v>255196.0155398884</v>
+        <v>255161.2776144523</v>
       </c>
       <c r="I6" t="n">
-        <v>255196.0155398881</v>
+        <v>255161.2776144522</v>
       </c>
       <c r="J6" t="n">
-        <v>87590.83772990566</v>
+        <v>87556.09980447026</v>
       </c>
       <c r="K6" t="n">
-        <v>255196.0155398883</v>
+        <v>255161.2776144524</v>
       </c>
       <c r="L6" t="n">
-        <v>255196.0155398883</v>
+        <v>255161.2776144524</v>
       </c>
       <c r="M6" t="n">
-        <v>122588.7218109613</v>
+        <v>122553.9838855258</v>
       </c>
       <c r="N6" t="n">
-        <v>255196.0155398883</v>
+        <v>255161.2776144524</v>
       </c>
       <c r="O6" t="n">
-        <v>255196.0155398881</v>
+        <v>255161.2776144525</v>
       </c>
       <c r="P6" t="n">
-        <v>255196.0155398884</v>
+        <v>255161.2776144524</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>1.34668451712372</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>78.68031877585867</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.71101063116802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>86.81590547846412</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>197.357991819681</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>9.607352709647529</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>211.3169967867956</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>253.5473723824335</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>345.9779157201195</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>184.585700986016</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>215.1405611477888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-2.574869756309683e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30457,13 +30457,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31042,7 +31042,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
@@ -31060,7 +31060,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166594</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.4038763438002</v>
@@ -31130,22 +31130,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.462496416876</v>
@@ -31197,7 +31197,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
         <v>14.97566335231072</v>
@@ -31212,10 +31212,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067958</v>
@@ -31230,13 +31230,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
         <v>0.09187523529024984</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31391,10 +31391,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31686,16 +31686,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,19 +31835,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33284,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067507</v>
@@ -34708,7 +34708,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949726</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091737</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676415</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>528.9386420741744</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
         <v>173.424759342349</v>
@@ -34863,7 +34863,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860244</v>
@@ -34872,7 +34872,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
         <v>54.881755458054</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560633</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>388.6189266346388</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215494</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>631.9617651335544</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.5838886097709</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998991</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
